--- a/mConnect/src/test/java/testData/LoginResults.xlsx
+++ b/mConnect/src/test/java/testData/LoginResults.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\prathamesh.lad@nanostuffs.com\mConnect Automation\mConnect\mConnect\src\test\java\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FF794A-0C59-4668-9CDF-C454BD934689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043A575D-CCA1-4738-AE62-07714F92002A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,15 +17,189 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
+  <si>
+    <t>cs.anand@pidilite.com</t>
+  </si>
+  <si>
+    <t>Dealer--(BANGALORE2:CM00900__SAINI WORLD:1070251____C S TRADERS:2O2679)WSS--(BANGALORE2:CM00900__SAINI WORLD:1070251)Product--(AC PREFAB (APREF))Team--(BANGALORE2:CM00900__SAINI WORLD:1070251)</t>
+  </si>
+  <si>
+    <t>diwakar.jha@pidilite.com</t>
+  </si>
+  <si>
+    <t>Dealer--(EASTERNUP:CD00400______)WSS--(EASTERNUP:CD00400__ASHMIT ENTERPRISES:1070148)Product--(AC PREFAB (APREF))Team--(EASTERNUP:CD00400__ASHMIT ENTERPRISES:1070148)</t>
+  </si>
+  <si>
+    <t>indranil.sengupta@pidilite.com</t>
+  </si>
+  <si>
+    <t>Dealer--(COASTAL AP:CM00500__SREE SHANMUKHA TRADERS:1069829____DEVAGURU HARD WARE:D74870)WSS--(COASTAL AP:CM00500__SREE SHANMUKHA TRADERS:1069829)Product--(AC PREFAB (APREF))Team--(COASTAL AP:CM00500__SREE SHANMUKHA TRADERS:1069829)</t>
+  </si>
+  <si>
+    <t>jay.mehta@pidilite.com</t>
+  </si>
+  <si>
+    <t>Dealer--(NAGPUR:CY00500__GUPTA GLASS WORKS:1070184____Om Enterprises:2Q4236)WSS--(NAGPUR:CY00500__GUPTA GLASS WORKS:1070184)Product--(AC PREFAB (APREF))Team--(NAGPUR:CY00500__GUPTA GLASS WORKS:1070184)</t>
+  </si>
+  <si>
+    <t>krishan.kalla@pidilite.com</t>
+  </si>
+  <si>
+    <t>Dealer--(JAIPUR:CA00300__Nuflex International:1069542____India Plywood:2W6564)WSS--(JAIPUR:CA00300__Nuflex International:1069542)Product--(AC PREFAB (APREF))Team--(JAIPUR:CA00300__Nuflex International:1069542)</t>
+  </si>
+  <si>
+    <t>manjunatha.yv@pidilite.com</t>
+  </si>
+  <si>
+    <t>mehra.surender@pidilite.com</t>
+  </si>
+  <si>
+    <t>Dealer--(DELHI-C GAZIABAD:DELHI-C__BANSAL TRADERS:1069634____FR Electrical:2P9436)WSS--(DELHI-C GAZIABAD:DELHI-C__BANSAL TRADERS:1069634)Product--(AC PREFAB (APREF))Team--(DELHI-C GAZIABAD:DELHI-C__BANSAL TRADERS:1069634)</t>
+  </si>
+  <si>
+    <t>nawlesh.kumar@pidilite.com</t>
+  </si>
+  <si>
+    <t>Dealer--(JHARKHAND+ORISSA:CC00600__Loading...____)WSS--(JHARKHAND+ORISSA:CC00600__)Product--(AC PREFAB (APREF))Team--(JHARKHAND+ORISSA:CC00600__Loading...)</t>
+  </si>
+  <si>
+    <t>sanjay.kaul@pidilite.com</t>
+  </si>
+  <si>
+    <t>Dealer--(PUNJAB NORTH:CD00910__Loading...____)WSS--(PUNJAB NORTH:CD00910__)Product--(AC PREFAB (APREF))Team--(PUNJAB NORTH:CD00910__Loading...)</t>
+  </si>
+  <si>
+    <t>senthilkumar.p@pidilite.com</t>
+  </si>
+  <si>
+    <t>Dealer--(COIMBATORE:CM00600__SAASTHA CONSTRUCTIONS &amp; WATER PROOF:1071211____K MART PRIVATE LIMITED:2R7804)WSS--(COIMBATORE:CM00600__SAASTHA CONSTRUCTIONS &amp; WATER PROOF:1071211)Product--(AC PREFAB (APREF))Team--(COIMBATORE:CM00600__SAASTHA CONSTRUCTIONS &amp; WATER PROOF:1071211)</t>
+  </si>
+  <si>
+    <t>shwetank.mishra@pidilite.com</t>
+  </si>
+  <si>
+    <t>Dealer--(BANGALORE1:CM00400__Decoline Art:1071516____Hasan Art Glass Enterprises:2R9442)WSS--(BANGALORE1:CM00400__Decoline Art:1071516)Product--(AC PREFAB (APREF))Team--(BANGALORE1:CM00400__Decoline Art:1071516)</t>
+  </si>
+  <si>
+    <t>aditi.goel@pidilite.com</t>
+  </si>
+  <si>
+    <t>Dealer--(Gujarat:AHM0001__Pramukh Enterprise:1069768____RAJ STATIONES AND NOTE BOOK:RL9127)WSS--(Gujarat:AHM0001__Pramukh Enterprise:1069768)Product--(ACRYLIC COLOURS)Team--(Gujarat:AHM0001__Pramukh Enterprise:1069768)</t>
+  </si>
+  <si>
+    <t>avantika.mehta@pidilite.com</t>
+  </si>
+  <si>
+    <t>Dealer--(Chd+Haryana and J&amp;K:DEL0004__Pawan electricals:1070770____CM Stationery:2P9139)WSS--(Chd+Haryana and J&amp;K:DEL0004__Pawan electricals:1070770)Product--(ACRYLIC COLOURS)Team--(Chd+Haryana and J&amp;K:DEL0004__Pawan electricals:1070770)</t>
+  </si>
+  <si>
+    <t>gopalakrishnan.vp@pidilite.com</t>
+  </si>
+  <si>
+    <t>Dealer--(Loading...__Loading...____)WSS--(Loading...__)Product--(ACRYLIC COLOURS)Team--(Loading...__Loading...)</t>
+  </si>
+  <si>
+    <t>mohd.adnan@pidilite.com</t>
+  </si>
+  <si>
+    <t>Dealer--(Karnataka:BAN0001__KAMAT AGENCIES (FMCG):1003100____PADAMAVATHI TRADING:P73334)WSS--(Karnataka:BAN0001__KAMAT AGENCIES (FMCG):1003100)Product--(ACRYLIC COLOURS)Team--(Karnataka:BAN0001__KAMAT AGENCIES (FMCG):1003100)</t>
+  </si>
+  <si>
+    <t>shubham.yadav@pidilite.com</t>
+  </si>
+  <si>
+    <t>Dealer--(Mumbai Wholesale:MUM0002__HARSUKHRAM &amp; SONS:1007744____Maruti Stores:2O9705)WSS--(Mumbai Wholesale:MUM0002__HARSUKHRAM &amp; SONS:1007744)Product--(ACRYLIC COLOURS)Team--(Mumbai Wholesale:MUM0002__HARSUKHRAM &amp; SONS:1007744)</t>
+  </si>
+  <si>
+    <t>mangala.dubey@pidilite.com</t>
+  </si>
+  <si>
+    <t>Dealer--(WESTERN MUMBAI:MUMC300__Dilip Paints:1069441____)WSS--(WESTERN MUMBAI:MUMC300__Dilip Paints:1069441)Product--(1 2 4X8 DENSDECK UNPRIMED 50D3)Team--(WESTERN MUMBAI:MUMC300__Dilip Paints:1069441)</t>
+  </si>
+  <si>
+    <t>diksha.na@pidilite.com</t>
+  </si>
+  <si>
+    <t>Dealer--(S-RAJKOT:STIWRAJ__Radhe Distributors:1069887____Yogi Revinding Work:1R9580)WSS--(S-RAJKOT:STIWRAJ__Radhe Distributors:1069887)Product--(150.50 JOWAPUR PUD)Team--(S-RAJKOT:STIWRAJ__Radhe Distributors:1069887)</t>
+  </si>
+  <si>
+    <t>golandaz.khan@pidilite.com</t>
+  </si>
+  <si>
+    <t>Dealer--(RB-PUNE:MH00000__SHRENA AGENCIES:1069396____Nilambika Auto:1T4070)WSS--(RB-PUNE:MH00000__SHRENA AGENCIES:1069396)Product--(150.50 JOWAPUR PUD)Team--(RB-PUNE:MH00000__SHRENA AGENCIES:1069396)</t>
+  </si>
+  <si>
+    <t>p.sridhar@pidilite.com</t>
+  </si>
+  <si>
+    <t>Dealer--(RB-KOLKATA:WB00000__N R AGENCY:1069617____N.R AGENCY:N69515)WSS--(RB-KOLKATA:WB00000__N R AGENCY:1069617)Product--(150.50 JOWAPUR PUD)Team--(RB-KOLKATA:WB00000__N R AGENCY:1069617)</t>
+  </si>
+  <si>
+    <t>rajkumar.dubey@pidilite.com</t>
+  </si>
+  <si>
+    <t>Dealer--(Loading...______)WSS--(Loading...__)Product--(150.50 JOWAPUR PUD)Team--(Loading...__Loading...)</t>
+  </si>
+  <si>
+    <t>upendra.choudhary@pidilite.com</t>
+  </si>
+  <si>
+    <t>Dealer--(RB-JAIPUR:RAJR100__Shristi Industries:1069851____GANESHAM SANITARY HOUSE:2Z8161)WSS--(RB-JAIPUR:RAJR100__Shristi Industries:1069851)Product--(150.50 JOWAPUR PUD)Team--(RB-JAIPUR:RAJR100__Shristi Industries:1069851)</t>
+  </si>
+  <si>
+    <t>govindrakesh.iyer@pidilite.com</t>
+  </si>
+  <si>
+    <t>Dealer--(S-UDAIPUR:STINB01__Anant Enterprises:1069709____Shiv Kripa  Industries:1Q3098)WSS--(S-UDAIPUR:STINB01__Anant Enterprises:1069709)Product--(150.50 JOWAPUR PUD)Team--(S-UDAIPUR:STINB01__Anant Enterprises:1069709)</t>
+  </si>
+  <si>
+    <t>joseph.reddy@pidilite.com</t>
+  </si>
+  <si>
+    <t>Dealer--(S-TELANGANA:STI_HYD__SRI VIGNESWARA AGENCIES:1069770____Sri Venkateswara Traders:1X9445)WSS--(S-TELANGANA:STI_HYD__SRI VIGNESWARA AGENCIES:1069770)Product--(150.50 JOWAPUR PUD)Team--(S-TELANGANA:STI_HYD__SRI VIGNESWARA AGENCIES:1069770)</t>
+  </si>
+  <si>
+    <t>namani.kumar@pidilite.com</t>
+  </si>
+  <si>
+    <t>Dealer--(S-ANDHRA PRADESH:STI_VJW__SAI SURYA ENTERPRISES:1069670____Shivam Electricals &amp; Hardware:1C2046)WSS--(S-ANDHRA PRADESH:STI_VJW__SAI SURYA ENTERPRISES:1069670)Product--(150.50 JOWAPUR PUD)Team--(S-ANDHRA PRADESH:STI_VJW__SAI SURYA ENTERPRISES:1069670)</t>
+  </si>
+  <si>
+    <t>sanjaya.sahu@pidilite.com</t>
+  </si>
+  <si>
+    <t>Dealer--(S-ORISSA:STI_OS1__Maya Trading:1069532____JODA XEROX AND STATIONARY:J74990)WSS--(S-ORISSA:STI_OS1__Maya Trading:1069532)Product--(150.50 JOWAPUR PUD)Team--(S-ORISSA:STI_OS1__Maya Trading:1069532)</t>
+  </si>
+  <si>
+    <t>tejaskumar.suthar@pidilite.com</t>
+  </si>
+  <si>
+    <t>Dealer--(STI-P-GHAZIABAD:STIBM01__M/S S.K.Agency:1070310____KESHAV BOOK STORE:2H9859)WSS--(STI-P-GHAZIABAD:STIBM01__M/S S.K.Agency:1070310)Product--(150.50 JOWAPUR PUD)Team--(STI-P-GHAZIABAD:STIBM01__M/S S.K.Agency:1070310)</t>
+  </si>
+  <si>
+    <t>bibin.krishnan@pidilite.com</t>
+  </si>
+  <si>
+    <t>Dealer--(STI-P-GHAZIABAD:STIBM01__M/S S.K.Agency:1070310____KESHAV BOOK STORE:2H9859)WSS--(STI-P-GHAZIABAD:STIBM01__M/S S.K.Agency:1070310)Product--(AC PREFAB (APREF))Team--(STI-P-GHAZIABAD:STIBM01__M/S S.K.Agency:1070310)</t>
+  </si>
+  <si>
+    <t>shalini.ghosh@pidilite.com</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -337,18 +511,259 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="31.5546875"/>
+    <col min="2" max="2" customWidth="true" width="120.33203125"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>